--- a/projects/ai_frontier/file/youshiki_1-3.xlsx
+++ b/projects/ai_frontier/file/youshiki_1-3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2479B6-3849-4DC5-9A71-557CBE3FCF70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877F9560-4A87-4E2A-B7DF-545E0D4E179A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1200" windowWidth="15360" windowHeight="6330" tabRatio="611" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,7 @@
     <sheet name="申請書 (様式1)" sheetId="13" r:id="rId2"/>
     <sheet name="テーマ提案書 (様式2)" sheetId="14" r:id="rId3"/>
     <sheet name="確認事項チェックリスト (様式3)" sheetId="12" r:id="rId4"/>
+    <sheet name="転記用集計シート (非表示)" sheetId="15" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="ＰＭ名" localSheetId="2">'テーマ提案書 (様式2)'!#REF!</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="85">
   <si>
     <t>郵便番号</t>
     <rPh sb="0" eb="4">
@@ -1131,13 +1132,129 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>略歴</t>
+    <rPh sb="0" eb="2">
+      <t>リャクレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提案テーマ概要</t>
+    <rPh sb="0" eb="2">
+      <t>テイアン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数</t>
+    <rPh sb="0" eb="3">
+      <t>モジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問1</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問2</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問3</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問4</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問5</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問6</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問7</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>問8</t>
+    <rPh sb="0" eb="1">
+      <t>トイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生年月日
+(西暦)</t>
+    <rPh sb="0" eb="2">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガッピ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セイレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応募時の
+満年齢</t>
+    <rPh sb="0" eb="2">
+      <t>オウボ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>マンネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0&quot;歳&quot;"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -1313,7 +1430,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1707,6 +1824,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1714,7 +1842,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1762,15 +1890,9 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1831,15 +1953,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1849,15 +1965,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1882,12 +2019,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1909,75 +2040,12 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="13" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2005,10 +2073,141 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="31" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="15" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="15" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2533,7 +2732,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2567,10 +2766,10 @@
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="13"/>
@@ -2581,39 +2780,39 @@
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
     </row>
     <row r="7" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="68" t="s">
+      <c r="B7" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="69"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="47"/>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="70">
+      <c r="B8" s="50">
         <v>34403</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="51"/>
       <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="27">
         <f>IF(B8="","",DATEDIF(B8,"2019/2/5","Y"))</f>
         <v>24</v>
       </c>
@@ -2625,12 +2824,12 @@
       <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="8" t="s">
         <v>40</v>
       </c>
@@ -2639,12 +2838,12 @@
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="9" t="s">
         <v>41</v>
       </c>
@@ -2653,42 +2852,42 @@
       <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="65" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="28" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="26" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2696,13 +2895,13 @@
       <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="28" t="s">
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="26" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2710,66 +2909,66 @@
       <c r="A15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="28" t="s">
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="26" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="150" customHeight="1">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-    </row>
-    <row r="19" spans="1:7" s="24" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="49" t="s">
+    <row r="18" spans="1:7" s="22" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+    </row>
+    <row r="19" spans="1:7" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-    </row>
-    <row r="20" spans="1:7" s="24" customFormat="1" ht="45" customHeight="1">
-      <c r="A20" s="52" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+    </row>
+    <row r="20" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1">
+      <c r="A20" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="43" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="5"/>
@@ -2808,11 +3007,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A19:E19"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="B11:E11"/>
@@ -2822,6 +3016,11 @@
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B6:E7 B8:C8 B9:E9 C12 E12 C13:E13 B14:E15 A17:E17">
@@ -2875,7 +3074,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showGridLines="0" showWhiteSpace="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -2909,10 +3108,10 @@
       <c r="C3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="13"/>
@@ -2923,33 +3122,33 @@
       <c r="C5" s="13"/>
     </row>
     <row r="6" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="82"/>
     </row>
     <row r="7" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="76"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="29" t="str">
+      <c r="E8" s="27" t="str">
         <f>IF(B8="","",DATEDIF(B8,"2019/2/5","Y"))</f>
         <v/>
       </c>
@@ -2958,115 +3157,115 @@
       <c r="A9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
     </row>
     <row r="10" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="56"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="56"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
     </row>
     <row r="12" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A12" s="64" t="s">
+      <c r="A12" s="65" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="18" t="s">
+      <c r="C12" s="89"/>
+      <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="90"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="83"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
     </row>
     <row r="14" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="56"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
     </row>
     <row r="15" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
     </row>
     <row r="16" spans="1:6" s="7" customFormat="1" ht="30" customHeight="1">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:7" s="7" customFormat="1" ht="150" customHeight="1">
-      <c r="A17" s="79"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-    </row>
-    <row r="19" spans="1:7" s="24" customFormat="1" ht="30" customHeight="1">
-      <c r="A19" s="49" t="s">
+    <row r="18" spans="1:7" s="22" customFormat="1" ht="9.9499999999999993" customHeight="1">
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+    </row>
+    <row r="19" spans="1:7" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-    </row>
-    <row r="20" spans="1:7" s="24" customFormat="1" ht="45" customHeight="1">
-      <c r="A20" s="52" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="54"/>
+    </row>
+    <row r="20" spans="1:7" s="22" customFormat="1" ht="45" customHeight="1">
+      <c r="A20" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="54"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="57"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1">
-      <c r="A21" s="46"/>
-      <c r="B21" s="48" t="s">
+      <c r="A21" s="96"/>
+      <c r="B21" s="43" t="s">
         <v>70</v>
       </c>
       <c r="E21" s="5"/>
@@ -3098,6 +3297,7 @@
       <c r="E27" s="5"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="14">
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A19:E19"/>
@@ -3150,159 +3350,160 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" showWhiteSpace="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E18"/>
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="26" customWidth="1"/>
-    <col min="3" max="256" width="15.625" style="24" customWidth="1"/>
-    <col min="257" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="15.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="24" customWidth="1"/>
+    <col min="3" max="256" width="15.625" style="22" customWidth="1"/>
+    <col min="257" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:6" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:6" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="9.9499999999999993" customHeight="1" thickTop="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:6" ht="30" customHeight="1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="98"/>
     </row>
     <row r="6" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="98"/>
     </row>
     <row r="8" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="36"/>
     </row>
     <row r="9" spans="1:6" ht="30" customHeight="1">
-      <c r="A9" s="90" t="s">
+      <c r="A9" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10" spans="1:6" ht="30" customHeight="1">
-      <c r="A10" s="91" t="s">
+      <c r="A10" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
     </row>
     <row r="11" spans="1:6" ht="120" customHeight="1">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="22"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="40">
         <f>LEN(A11)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="94" t="str">
+      <c r="C12" s="74" t="str">
         <f>IF(B12&gt;400,"※文字数がオーバーしています。400字以内でご記入ください","")</f>
         <v/>
       </c>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
     </row>
     <row r="13" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A13" s="37"/>
+      <c r="A13" s="35"/>
     </row>
     <row r="14" spans="1:6" ht="30" customHeight="1">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="24" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="89"/>
+      <c r="E14" s="69"/>
     </row>
     <row r="15" spans="1:6" ht="9.9499999999999993" customHeight="1">
-      <c r="A15" s="38"/>
+      <c r="A15" s="36"/>
     </row>
     <row r="16" spans="1:6" ht="30" customHeight="1">
-      <c r="A16" s="90" t="s">
+      <c r="A16" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="93"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
     </row>
     <row r="18" spans="1:5" ht="150" customHeight="1">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="39"/>
+      <c r="A19" s="37"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="12">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -3343,354 +3544,355 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showWhiteSpace="0" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD40"/>
+    <sheetView showGridLines="0" showWhiteSpace="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="26" customWidth="1"/>
-    <col min="3" max="256" width="15.625" style="24" customWidth="1"/>
-    <col min="257" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="15.625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="24" customWidth="1"/>
+    <col min="3" max="256" width="15.625" style="22" customWidth="1"/>
+    <col min="257" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" customHeight="1">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="4" spans="1:8" ht="9.9499999999999993" customHeight="1" thickBot="1">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="32" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="9.9499999999999993" customHeight="1" thickTop="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="96" t="s">
+      <c r="A8" s="101"/>
+      <c r="B8" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
     </row>
     <row r="9" spans="1:8" ht="60" customHeight="1">
-      <c r="A9" s="98"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
+      <c r="A9" s="102"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
     </row>
     <row r="10" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="96" t="s">
+      <c r="A12" s="101"/>
+      <c r="B12" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
     </row>
     <row r="13" spans="1:8" ht="60" customHeight="1">
-      <c r="A13" s="98"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
     </row>
     <row r="14" spans="1:8" ht="9.9499999999999993" customHeight="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="96" t="s">
+      <c r="A16" s="101"/>
+      <c r="B16" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
     </row>
     <row r="17" spans="1:5" ht="60" customHeight="1">
-      <c r="A17" s="98"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
     </row>
     <row r="18" spans="1:5" ht="9.9499999999999993" customHeight="1">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="40"/>
-      <c r="B20" s="96" t="s">
+      <c r="A20" s="101"/>
+      <c r="B20" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
     </row>
     <row r="21" spans="1:5" ht="60" customHeight="1">
-      <c r="A21" s="98"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
+      <c r="A21" s="102"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
     </row>
     <row r="22" spans="1:5" ht="9.9499999999999993" customHeight="1">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="36" t="s">
+      <c r="A23" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="40"/>
-      <c r="B24" s="96" t="s">
+      <c r="A24" s="101"/>
+      <c r="B24" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
     </row>
     <row r="25" spans="1:5" ht="60" customHeight="1">
-      <c r="A25" s="98"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
+      <c r="A25" s="102"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
     </row>
     <row r="26" spans="1:5" ht="9.9499999999999993" customHeight="1">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="99" t="s">
+      <c r="B27" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="40"/>
-      <c r="B28" s="96" t="s">
+      <c r="A28" s="101"/>
+      <c r="B28" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
     </row>
     <row r="29" spans="1:5" ht="60" customHeight="1">
-      <c r="A29" s="98"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
+      <c r="A29" s="102"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
     </row>
     <row r="30" spans="1:5" ht="9.9499999999999993" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="36" t="s">
+      <c r="A31" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="40"/>
-      <c r="B32" s="96" t="s">
+      <c r="A32" s="101"/>
+      <c r="B32" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
     </row>
     <row r="33" spans="1:5" ht="60" customHeight="1">
-      <c r="A33" s="98"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
     </row>
     <row r="34" spans="1:5" ht="9.9499999999999993" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="99" t="s">
+      <c r="B35" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1">
-      <c r="A36" s="40"/>
-      <c r="B36" s="96" t="s">
+      <c r="A36" s="101"/>
+      <c r="B36" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
     </row>
     <row r="37" spans="1:5" ht="60" customHeight="1">
-      <c r="A37" s="98"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="98"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1">
-      <c r="A41" s="26"/>
+      <c r="A41" s="24"/>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1">
-      <c r="A42" s="26"/>
+      <c r="A42" s="24"/>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1">
-      <c r="A43" s="26"/>
+      <c r="A43" s="24"/>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1">
-      <c r="A44" s="26"/>
+      <c r="A44" s="24"/>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1">
-      <c r="A45" s="26"/>
+      <c r="A45" s="24"/>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1">
-      <c r="A46" s="26"/>
+      <c r="A46" s="24"/>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1">
-      <c r="A47" s="26"/>
+      <c r="A47" s="24"/>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1">
-      <c r="A48" s="26"/>
+      <c r="A48" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="28">
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B35:E35"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B27:E27"/>
@@ -3703,14 +3905,14 @@
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="A8">
@@ -3791,4 +3993,258 @@
     <brk id="26" max="4" man="1"/>
   </rowBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6BD252-E636-4985-8E7D-2DC9D1836179}">
+  <dimension ref="A1:AF2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="3.625" style="79" customWidth="1"/>
+    <col min="2" max="3" width="15.625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="103" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="104" customWidth="1"/>
+    <col min="6" max="8" width="20.625" style="79" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="79" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.875" style="79" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.625" style="79" customWidth="1"/>
+    <col min="12" max="12" width="13.125" style="79" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.625" style="79" customWidth="1"/>
+    <col min="14" max="14" width="50.625" style="79" customWidth="1"/>
+    <col min="15" max="15" width="10.625" style="104" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.625" style="115" customWidth="1"/>
+    <col min="17" max="17" width="25.625" style="79" customWidth="1"/>
+    <col min="18" max="18" width="15.625" style="79" customWidth="1"/>
+    <col min="19" max="19" width="50.625" style="79" customWidth="1"/>
+    <col min="20" max="20" width="6.375" style="104" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.25" style="105" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="50.625" style="79" customWidth="1"/>
+    <col min="23" max="23" width="3.625" style="115" customWidth="1"/>
+    <col min="24" max="32" width="6.625" style="104" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="79"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" s="104" customFormat="1" ht="30" customHeight="1">
+      <c r="A1" s="110"/>
+      <c r="B1" s="110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="112" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="110" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="110" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="110" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="110" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="110" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="110" t="s">
+        <v>57</v>
+      </c>
+      <c r="R1" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="S1" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="V1" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="113"/>
+      <c r="X1" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y1" s="110" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z1" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA1" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="AB1" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="110" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE1" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF1" s="110" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="120" customHeight="1">
+      <c r="A2" s="107"/>
+      <c r="B2" s="107" t="str">
+        <f>IF('申請書 (様式1)'!$B$7="","",'申請書 (様式1)'!$B$7)</f>
+        <v/>
+      </c>
+      <c r="C2" s="107" t="str">
+        <f>IF('申請書 (様式1)'!$B$6="","",'申請書 (様式1)'!$B$6)</f>
+        <v/>
+      </c>
+      <c r="D2" s="108" t="str">
+        <f>IF('申請書 (様式1)'!$B$8="","",'申請書 (様式1)'!$B$8)</f>
+        <v/>
+      </c>
+      <c r="E2" s="106" t="str">
+        <f>IF('申請書 (様式1)'!$E$8="","",'申請書 (様式1)'!$E$8)</f>
+        <v/>
+      </c>
+      <c r="F2" s="107" t="str">
+        <f>IF('申請書 (様式1)'!$B$9="","",'申請書 (様式1)'!$B$9)</f>
+        <v/>
+      </c>
+      <c r="G2" s="107" t="str">
+        <f>IF('申請書 (様式1)'!$B$10="","",'申請書 (様式1)'!$B$10)</f>
+        <v/>
+      </c>
+      <c r="H2" s="107" t="str">
+        <f>IF('申請書 (様式1)'!$B$11="","",'申請書 (様式1)'!$B$11)</f>
+        <v/>
+      </c>
+      <c r="I2" s="107" t="str">
+        <f>IF('申請書 (様式1)'!$C$12="","",'申請書 (様式1)'!$C$12)</f>
+        <v/>
+      </c>
+      <c r="J2" s="107" t="str">
+        <f>IF('申請書 (様式1)'!$E$12="","",'申請書 (様式1)'!$E$12)</f>
+        <v/>
+      </c>
+      <c r="K2" s="107" t="str">
+        <f>IF('申請書 (様式1)'!$C$13="","",'申請書 (様式1)'!$C$13)</f>
+        <v/>
+      </c>
+      <c r="L2" s="107" t="str">
+        <f>IF('申請書 (様式1)'!$B$14="","",'申請書 (様式1)'!$B$14)</f>
+        <v/>
+      </c>
+      <c r="M2" s="107" t="str">
+        <f>IF('申請書 (様式1)'!$B$15="","",'申請書 (様式1)'!$B$15)</f>
+        <v/>
+      </c>
+      <c r="N2" s="107" t="str">
+        <f>IF('申請書 (様式1)'!$A$17="","",'申請書 (様式1)'!$A$17)</f>
+        <v/>
+      </c>
+      <c r="O2" s="106" t="str">
+        <f>IF('申請書 (様式1)'!$A$21="","",'申請書 (様式1)'!$A$21)</f>
+        <v/>
+      </c>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="107" t="str">
+        <f>IF('テーマ提案書 (様式2)'!$B$5="","",'テーマ提案書 (様式2)'!$B$5)</f>
+        <v/>
+      </c>
+      <c r="R2" s="107" t="str">
+        <f>IF('テーマ提案書 (様式2)'!$B$7="","",'テーマ提案書 (様式2)'!$B$7)</f>
+        <v/>
+      </c>
+      <c r="S2" s="107" t="str">
+        <f>IF('テーマ提案書 (様式2)'!$A$11="","",'テーマ提案書 (様式2)'!$A$11)</f>
+        <v/>
+      </c>
+      <c r="T2" s="106">
+        <f>IF('テーマ提案書 (様式2)'!$B$12="","",'テーマ提案書 (様式2)'!$B$12)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="109" t="str">
+        <f>IF('テーマ提案書 (様式2)'!$B$14="","",'テーマ提案書 (様式2)'!$B$14)</f>
+        <v/>
+      </c>
+      <c r="V2" s="107" t="str">
+        <f>IF('テーマ提案書 (様式2)'!$A$18="","",'テーマ提案書 (様式2)'!$A$18)</f>
+        <v/>
+      </c>
+      <c r="W2" s="114"/>
+      <c r="X2" s="106" t="str">
+        <f>IF('確認事項チェックリスト (様式3)'!$A$8="","",'確認事項チェックリスト (様式3)'!$A$8)</f>
+        <v/>
+      </c>
+      <c r="Y2" s="106" t="str">
+        <f>IF('確認事項チェックリスト (様式3)'!$A$12="","",'確認事項チェックリスト (様式3)'!$A$12)</f>
+        <v/>
+      </c>
+      <c r="Z2" s="106" t="str">
+        <f>IF('確認事項チェックリスト (様式3)'!$A$16="","",'確認事項チェックリスト (様式3)'!$A$16)</f>
+        <v/>
+      </c>
+      <c r="AA2" s="106" t="str">
+        <f>IF('確認事項チェックリスト (様式3)'!$A$20="","",'確認事項チェックリスト (様式3)'!$A$20)</f>
+        <v/>
+      </c>
+      <c r="AB2" s="106" t="str">
+        <f>IF('確認事項チェックリスト (様式3)'!$A$24="","",'確認事項チェックリスト (様式3)'!$A$24)</f>
+        <v/>
+      </c>
+      <c r="AC2" s="106" t="str">
+        <f>IF('確認事項チェックリスト (様式3)'!$A$28="","",'確認事項チェックリスト (様式3)'!$A$28)</f>
+        <v/>
+      </c>
+      <c r="AD2" s="106" t="str">
+        <f>IF('確認事項チェックリスト (様式3)'!$A$32="","",'確認事項チェックリスト (様式3)'!$A$32)</f>
+        <v/>
+      </c>
+      <c r="AE2" s="106" t="str">
+        <f>IF('確認事項チェックリスト (様式3)'!$A$36="","",'確認事項チェックリスト (様式3)'!$A$36)</f>
+        <v/>
+      </c>
+      <c r="AF2" s="106" t="str">
+        <f>IF(OR(AD2="いいえ",AE2="いいえ"),"NG",IF(AND(X2="いいえ",Y2="いいえ",Z2="はい",AA2="いいえ",AB2="はい",AC2="いいえ"),"OK",IF(AND(X2="いいえ",Y2="いいえ",Z2="はい",AA2="はい",AB2="はい",AC2="いいえ"),"要確認","NG")))</f>
+        <v>NG</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>